--- a/multiple-datasource/doc/多数据源测试点.xlsx
+++ b/multiple-datasource/doc/多数据源测试点.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xieyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xieyang/work/spring-cloud/spring-src-study3/multiple-datasource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="31">
   <si>
     <t>测试点</t>
     <rPh sb="0" eb="1">
@@ -362,15 +362,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不一个dao:1.查询,2.更新,3.查询</t>
+    <t>解决方案</t>
+    <rPh sb="0" eb="1">
+      <t>qev</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>unw</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yyif</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>pvs</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同的dao:1.查询,2.更新,3.查询</t>
     <rPh sb="0" eb="1">
       <t>i</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>g</t>
+      <t>m</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>wh</t>
+      <t>r</t>
     </rPh>
     <rPh sb="9" eb="10">
       <t>sjg</t>
@@ -393,123 +409,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由于开事务，数据连接不重新获取，导致没法切库</t>
-    <rPh sb="0" eb="1">
-      <t>mh</t>
+    <t>servicA 依赖ServerB</t>
+    <rPh sb="8" eb="9">
+      <t>wygk</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都为查询</t>
+    <rPh sb="0" eb="1">
+      <t>ftj</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>gf</t>
+      <t>o</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>ga</t>
+      <t>sjg</t>
     </rPh>
     <rPh sb="3" eb="4">
+      <t>yqj</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有查有更新</t>
+    <rPh sb="0" eb="1">
+      <t>e</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>sjg</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>e</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gjq</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>usr</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都为更新</t>
+    <rPh sb="0" eb="1">
+      <t>ftj</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>o</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gjq</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>usr</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servie 一对多混用</t>
+    <rPh sb="7" eb="8">
+      <t>g</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cf</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qq</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ijx</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>et</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">备注 </t>
+    <rPh sb="0" eb="1">
+      <t>tlf</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>iy</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持不同源事务回滚</t>
+    <rPh sb="0" eb="1">
+      <t>i</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>fc</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>rff</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>i</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>m</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>idr</t>
+    </rPh>
+    <rPh sb="6" eb="7">
       <t>gk</t>
     </rPh>
+    <rPh sb="7" eb="8">
+      <t>tl</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>lkiy</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>iuc</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高并发测试</t>
+    <rPh sb="0" eb="1">
+      <t>ym</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>v</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>imj</t>
+    </rPh>
     <rPh sb="4" eb="5">
-      <t>tl</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ovt</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>rnd</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>lpk</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ruv</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>i</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>tgj</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>usr</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>aqb</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>nfg</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>im</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ifc</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>av</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ylk</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失败原因</t>
-    <rPh sb="0" eb="1">
-      <t>rw</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>mty</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dr</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ld</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决方案</t>
-    <rPh sb="0" eb="1">
-      <t>qev</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>unw</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>yyif</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>pvs</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事务管理器还有问题</t>
-    <rPh sb="0" eb="1">
-      <t>gk</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>tl</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tp</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>gj</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>kkd</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gip</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>e</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ukd</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>jghm</t>
+      <t>yaa</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,32 +693,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -695,61 +714,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,21 +732,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1055,17 +1105,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="102" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="45.33203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" style="16" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" customWidth="1"/>
     <col min="8" max="8" width="30.1640625" customWidth="1"/>
@@ -1073,635 +1123,645 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="25">
+        <v>1</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="19">
+        <v>2</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="31"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="31"/>
+      <c r="B10" s="25">
+        <v>3</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="31"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="31"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="19">
+        <v>4</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="31"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="31"/>
+      <c r="B18" s="25">
+        <v>5</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="31"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="19">
+        <v>6</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="31"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="18"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="31"/>
+      <c r="B26" s="19">
+        <v>7</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="31"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="31"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="25">
+        <v>8</v>
+      </c>
+      <c r="C30" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="D30" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="34"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="34"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="34"/>
+      <c r="B36" s="2">
         <v>14</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="31">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="22">
-        <v>3</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="31">
-        <v>4</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="22">
-        <v>5</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="31">
-        <v>6</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="31">
-        <v>7</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="1:11" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="8">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8">
-        <v>9</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8">
-        <v>11</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="8">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="8">
-        <v>14</v>
-      </c>
-      <c r="C36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D36" s="1"/>
-      <c r="E36" s="38"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8">
+      <c r="A37" s="34"/>
+      <c r="B37" s="2">
         <v>15</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="38"/>
+      <c r="E37" s="15"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1710,13 +1770,13 @@
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8">
+      <c r="A38" s="35"/>
+      <c r="B38" s="2">
         <v>16</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="38"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1725,11 +1785,13 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="38"/>
+      <c r="E39" s="15"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -1739,10 +1801,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="8"/>
+      <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="38"/>
+      <c r="E40" s="15"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -1752,10 +1814,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="8"/>
+      <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="38"/>
+      <c r="E41" s="15"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1765,10 +1827,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="8"/>
+      <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="38"/>
+      <c r="E42" s="15"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
@@ -1778,10 +1840,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
-      <c r="B43" s="8"/>
+      <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="38"/>
+      <c r="E43" s="15"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -1791,10 +1853,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="8"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="38"/>
+      <c r="E44" s="15"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -1804,10 +1866,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="8"/>
+      <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="38"/>
+      <c r="E45" s="15"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -1817,10 +1879,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="8"/>
+      <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="38"/>
+      <c r="E46" s="15"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
@@ -1830,10 +1892,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="8"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="38"/>
+      <c r="E47" s="15"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
@@ -1843,10 +1905,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="8"/>
+      <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="38"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
@@ -1856,10 +1918,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
-      <c r="B49" s="8"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="38"/>
+      <c r="E49" s="15"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -1869,10 +1931,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="8"/>
+      <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="38"/>
+      <c r="E50" s="15"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -1881,28 +1943,9 @@
       <c r="K50" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
+  <mergeCells count="34">
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
     <mergeCell ref="A5:A29"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="B2:B5"/>
@@ -1912,6 +1955,29 @@
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="C22:C25"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
